--- a/data/output/FV2410_FV2404/REQOTE/35004.xlsx
+++ b/data/output/FV2410_FV2404/REQOTE/35004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="307">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="307">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1048,6 +1048,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U156" totalsRowShown="0">
+  <autoFilter ref="A1:U156"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1337,7 +1367,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8820,5 +8853,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/REQOTE/35004.xlsx
+++ b/data/output/FV2410_FV2404/REQOTE/35004.xlsx
@@ -1941,7 +1941,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2709,7 +2709,7 @@
         <v>282</v>
       </c>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2"/>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3257,7 +3257,7 @@
         <v>283</v>
       </c>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3461,7 +3461,7 @@
         <v>285</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3665,7 +3665,7 @@
         <v>285</v>
       </c>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3869,7 +3869,7 @@
         <v>288</v>
       </c>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5639,7 +5639,7 @@
         <v>291</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6239,7 +6239,7 @@
         <v>294</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6843,7 +6843,7 @@
         <v>296</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7259,7 +7259,7 @@
         <v>298</v>
       </c>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7413,7 +7413,7 @@
         <v>298</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7571,7 +7571,7 @@
         <v>298</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7725,7 +7725,7 @@
         <v>300</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8137,7 +8137,7 @@
         <v>302</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8553,7 +8553,7 @@
         <v>304</v>
       </c>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8707,7 +8707,7 @@
         <v>304</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -8865,7 +8865,7 @@
         <v>304</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9269,7 +9269,7 @@
         <v>305</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N152" s="2"/>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N154" s="2"/>
